--- a/results/mp/tinybert/corona/confidence/42/0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,16 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
@@ -64,129 +58,129 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>$</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
@@ -196,16 +190,43 @@
     <t>and</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>of</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -563,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M4">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -732,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8823529411764706</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.28</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7402597402597403</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5416666666666666</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L8">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3605150214592275</v>
+        <v>0.06388888888888888</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>149</v>
+        <v>337</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,45 +995,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="C10">
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K10">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1028,41 +1025,17 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.25</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>60</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8518518518518519</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,45 +1047,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="C12">
+      <c r="J12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>110</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K12">
-        <v>0.8461538461538461</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,45 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>97</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.8392857142857143</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.8235294117647058</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1226,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1252,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7586206896551724</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1278,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7068965517241379</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1304,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1330,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6575342465753424</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1356,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6470588235294118</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1382,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1408,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6153846153846154</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1434,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1460,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K25">
         <v>0.6</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1486,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1512,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5909090909090909</v>
+        <v>0.5625</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1538,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5774647887323944</v>
+        <v>0.5274151436031331</v>
       </c>
       <c r="L28">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="M28">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1564,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>90</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5263157894736842</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1590,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1616,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1642,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4883720930232558</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L32">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1668,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4861111111111111</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L33">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="M33">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1694,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1720,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.4565217391304348</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1746,21 +1671,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>50</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1772,21 +1697,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3243243243243243</v>
+        <v>0.296875</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1798,21 +1723,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.2037037037037037</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1824,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>43</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.05609756097560976</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1850,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>387</v>
+        <v>848</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.02850877192982456</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1876,73 +1801,73 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>443</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.02347417840375587</v>
+        <v>0.03748733535967579</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>416</v>
+        <v>950</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.01402373247033441</v>
+        <v>0.03666666666666667</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N42">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>914</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.01374570446735395</v>
+        <v>0.02774694783573807</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1954,85 +1879,371 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1722</v>
+        <v>876</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.01251117068811439</v>
+        <v>0.02022471910112359</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N44">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0.22</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1105</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.01096033402922756</v>
+        <v>0.0196479738027016</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>1895</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46">
+        <v>0.01712062256809339</v>
+      </c>
+      <c r="L46">
+        <v>22</v>
+      </c>
+      <c r="M46">
+        <v>26</v>
+      </c>
+      <c r="N46">
+        <v>0.85</v>
+      </c>
+      <c r="O46">
+        <v>0.15</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47">
+        <v>0.01691240242844753</v>
+      </c>
+      <c r="L47">
+        <v>39</v>
+      </c>
+      <c r="M47">
+        <v>42</v>
+      </c>
+      <c r="N47">
+        <v>0.93</v>
+      </c>
+      <c r="O47">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48">
+        <v>0.01642796967144061</v>
+      </c>
+      <c r="L48">
+        <v>39</v>
+      </c>
+      <c r="M48">
+        <v>44</v>
+      </c>
+      <c r="N48">
+        <v>0.89</v>
+      </c>
+      <c r="O48">
+        <v>0.11</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49">
+        <v>0.0157035175879397</v>
+      </c>
+      <c r="L49">
+        <v>25</v>
+      </c>
+      <c r="M49">
+        <v>27</v>
+      </c>
+      <c r="N49">
+        <v>0.93</v>
+      </c>
+      <c r="O49">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K46">
-        <v>0.01049317943336831</v>
-      </c>
-      <c r="L46">
-        <v>10</v>
-      </c>
-      <c r="M46">
-        <v>10</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>943</v>
+      <c r="K50">
+        <v>0.01467351430667645</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51">
+        <v>0.01434853043277019</v>
+      </c>
+      <c r="L51">
+        <v>62</v>
+      </c>
+      <c r="M51">
+        <v>69</v>
+      </c>
+      <c r="N51">
+        <v>0.9</v>
+      </c>
+      <c r="O51">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52">
+        <v>0.01421706047256708</v>
+      </c>
+      <c r="L52">
+        <v>71</v>
+      </c>
+      <c r="M52">
+        <v>73</v>
+      </c>
+      <c r="N52">
+        <v>0.97</v>
+      </c>
+      <c r="O52">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53">
+        <v>0.01168770453482936</v>
+      </c>
+      <c r="L53">
+        <v>25</v>
+      </c>
+      <c r="M53">
+        <v>29</v>
+      </c>
+      <c r="N53">
+        <v>0.86</v>
+      </c>
+      <c r="O53">
+        <v>0.14</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K54">
+        <v>0.0103026400515132</v>
+      </c>
+      <c r="L54">
+        <v>32</v>
+      </c>
+      <c r="M54">
+        <v>33</v>
+      </c>
+      <c r="N54">
+        <v>0.97</v>
+      </c>
+      <c r="O54">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K55">
+        <v>0.009267840593141797</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <v>20</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K56">
+        <v>0.008525479558225151</v>
+      </c>
+      <c r="L56">
+        <v>44</v>
+      </c>
+      <c r="M56">
+        <v>48</v>
+      </c>
+      <c r="N56">
+        <v>0.92</v>
+      </c>
+      <c r="O56">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K57">
+        <v>0.006885758998435055</v>
+      </c>
+      <c r="L57">
+        <v>22</v>
+      </c>
+      <c r="M57">
+        <v>28</v>
+      </c>
+      <c r="N57">
+        <v>0.79</v>
+      </c>
+      <c r="O57">
+        <v>0.21</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3173</v>
       </c>
     </row>
   </sheetData>
